--- a/数据流清单.xlsx
+++ b/数据流清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiangcen/Documents/biyesheji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53F1392-36AC-5C43-9B09-D96836012B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC2902-666B-6E46-8E08-7F391F3D188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="2780" windowWidth="18060" windowHeight="13220" xr2:uid="{1A0D9CC5-DBC8-3C4D-9ACA-45DF5FA890A0}"/>
+    <workbookView xWindow="8480" yWindow="2120" windowWidth="18060" windowHeight="13220" xr2:uid="{1A0D9CC5-DBC8-3C4D-9ACA-45DF5FA890A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake 行业研报原数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake 公司研报原数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake 公告原数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake券商研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAFKA-Bronze层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bronze层-Silver层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake行业研报原数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake研究行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake行业研究报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake研究员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAFKA行业研报采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAFKA公司研报采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAFKA公司公告采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake公司研报原数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLak公司研究报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silver层- Gold层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake公司研究报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake热点分析结果数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -49,16 +138,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -66,14 +170,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -390,14 +668,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD262A9-6195-8642-96DB-B924CC2C5179}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/数据流清单.xlsx
+++ b/数据流清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiangcen/Documents/biyesheji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC2902-666B-6E46-8E08-7F391F3D188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653CE15-1C09-F44A-9F4B-EB07C4061ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="2120" windowWidth="18060" windowHeight="13220" xr2:uid="{1A0D9CC5-DBC8-3C4D-9ACA-45DF5FA890A0}"/>
+    <workbookView xWindow="13740" yWindow="3140" windowWidth="18060" windowHeight="13220" xr2:uid="{1A0D9CC5-DBC8-3C4D-9ACA-45DF5FA890A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,22 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeltaLake 行业研报原数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeltaLake 公司研报原数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeltaLake 公告原数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeltaLake券商研究所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KAFKA-Bronze层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,18 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeltaLake研究行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeltaLake行业研究报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeltaLake研究员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KAFKA行业研报采集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,27 +66,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KAFKA公司公告采集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DeltaLake公司研报原数据表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeltaLak公司研究报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Silver层- Gold层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeltaLake公司研究报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeltaLake热点分析结果数据表</t>
+    <t>DeltaLake研报结构化信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake研报概念信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake研报结构化信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake概念热度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake概念研报索引表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaLake行业概念表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,7 +165,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -193,14 +175,66 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -214,71 +248,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -290,69 +265,78 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD262A9-6195-8642-96DB-B924CC2C5179}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -681,175 +665,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="23">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6">
-        <v>11</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据流清单.xlsx
+++ b/数据流清单.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiangcen/Documents/biyesheji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653CE15-1C09-F44A-9F4B-EB07C4061ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62ADD1C-C20E-974F-89C0-95683F807CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="3140" windowWidth="18060" windowHeight="13220" xr2:uid="{1A0D9CC5-DBC8-3C4D-9ACA-45DF5FA890A0}"/>
+    <workbookView xWindow="5740" yWindow="3820" windowWidth="21100" windowHeight="15100" xr2:uid="{1A0D9CC5-DBC8-3C4D-9ACA-45DF5FA890A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +96,70 @@
   </si>
   <si>
     <t>DeltaLake行业概念表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getIndustries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户订阅行业ID列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业ID列表、限制个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定行业范围的热点概念ID与热度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念ID、时间长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定时间范围内的概念热度变化趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getReportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念ID、研报数量限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回涉及该概念的研报信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +355,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,6 +383,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,37 +397,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,19 +720,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD262A9-6195-8642-96DB-B924CC2C5179}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,15 +745,33 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -692,8 +781,17 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -703,89 +801,110 @@
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18">
+    <row r="7" spans="1:8">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20">
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="15">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="23">
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="18">
+    <row r="13" spans="1:8">
+      <c r="A13" s="9">
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -801,4 +920,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40D0F74-8CC4-134B-BFC7-8D0404FCAF99}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>